--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_09A53A12E1812875B55A2E0C9B1D53C0ACFB1414" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{4DE6F4E7-C4BA-4AE8-AD8D-3E1BB74B5F4F}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_09A53A12E1812875B55A2E0C9B1D53C0ACFB1414" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{16731FDA-B597-4A4C-9629-2E79DC303CA5}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANN-All" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,14 @@
     <sheet name="v-rc" sheetId="5" r:id="rId5"/>
     <sheet name="v-ph" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -875,31 +882,31 @@
   </sheetPr>
   <dimension ref="A2:AJ212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P77" sqref="P77:P82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="6"/>
-    <col min="22" max="22" width="12.33203125" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="6"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L2" s="4">
         <v>0.13199155900000001</v>
       </c>
@@ -922,12 +929,12 @@
         <v>0.15132379000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
@@ -954,7 +961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1033,7 @@
       <c r="AI5" s="19"/>
       <c r="AJ5" s="20"/>
     </row>
-    <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L6" s="21"/>
       <c r="M6" s="22"/>
       <c r="N6" s="23"/>
@@ -1050,7 +1057,7 @@
       <c r="AI6" s="28"/>
       <c r="AJ6" s="29"/>
     </row>
-    <row r="7" spans="1:36" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:36" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>9.4069446676704915E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -1263,7 +1270,7 @@
         <v>-5.1143560763045715E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>4.6052777032927858E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>-4.5623400103282238E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -1578,7 +1585,7 @@
         <v>-3.1763626103959394E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -1683,7 +1690,7 @@
         <v>-4.3532480178185298E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>-5.9734855069363359E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -1893,7 +1900,7 @@
         <v>-3.588461553868532E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -1998,7 +2005,7 @@
         <v>-5.2822869233774099E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -2103,7 +2110,7 @@
         <v>-6.29150821971834E-4</v>
       </c>
     </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -2208,7 +2215,7 @@
         <v>-1.5074396491429895E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -2313,7 +2320,7 @@
         <v>-0.29574967555838727</v>
       </c>
     </row>
-    <row r="19" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -2418,7 +2425,7 @@
         <v>-0.18628911264956416</v>
       </c>
     </row>
-    <row r="20" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -2523,7 +2530,7 @@
         <v>-4.3136840964523554E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -2628,7 +2635,7 @@
         <v>2.1541962510333919E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -2733,7 +2740,7 @@
         <v>4.2264604148302465E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -2838,7 +2845,7 @@
         <v>-1.7658094339025123E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -2943,7 +2950,7 @@
         <v>-3.2574289442078033E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -3048,7 +3055,7 @@
         <v>0.20036484323299622</v>
       </c>
     </row>
-    <row r="26" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -3153,7 +3160,7 @@
         <v>0.12159197180023233</v>
       </c>
     </row>
-    <row r="27" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -3201,7 +3208,7 @@
       <c r="T27" s="50"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -3226,7 +3233,7 @@
       </c>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>0.39454384501857409</v>
       </c>
     </row>
-    <row r="30" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -3311,7 +3318,7 @@
         <v>4.041527857141169</v>
       </c>
     </row>
-    <row r="31" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -3350,7 +3357,7 @@
         <v>0.90237755151892973</v>
       </c>
     </row>
-    <row r="32" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -3389,7 +3396,7 @@
         <v>0.14410227453893076</v>
       </c>
     </row>
-    <row r="33" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -3428,7 +3435,7 @@
         <v>1.1761041040479705</v>
       </c>
     </row>
-    <row r="34" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -3467,7 +3474,7 @@
         <v>0.959716132223844</v>
       </c>
     </row>
-    <row r="35" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -3491,7 +3498,7 @@
         <v>0.75014120213128621</v>
       </c>
     </row>
-    <row r="36" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -3536,7 +3543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -3608,7 +3615,7 @@
       <c r="AI37" s="19"/>
       <c r="AJ37" s="20"/>
     </row>
-    <row r="38" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -3654,7 +3661,7 @@
       <c r="AI38" s="28"/>
       <c r="AJ38" s="29"/>
     </row>
-    <row r="39" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -3690,7 +3697,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="P39" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="35">
         <v>7</v>
@@ -3702,7 +3709,7 @@
       <c r="T39" s="36"/>
       <c r="U39" s="9">
         <f t="shared" ref="U39:U44" si="14">$R$2+$L$2*L39+$M$2*M39+$N$2*N39+$O$2*O39+$P$2*P39+$Q$2*Q39</f>
-        <v>1.3784312613278793</v>
+        <v>1.6437469673278793</v>
       </c>
       <c r="V39">
         <v>0.95125105299026735</v>
@@ -3712,7 +3719,7 @@
       </c>
       <c r="Y39" s="27">
         <f>(U39-S39)^2</f>
-        <v>4.115647863887275E-2</v>
+        <v>0.2191984131899892</v>
       </c>
       <c r="Z39" s="28">
         <f>(S39-$S$46)^2</f>
@@ -3720,11 +3727,11 @@
       </c>
       <c r="AA39" s="28">
         <f>ABS(LOG(U39/S39))</f>
-        <v>6.914006780692096E-2</v>
+        <v>0.14558991849893752</v>
       </c>
       <c r="AB39" s="29">
         <f>LOG(U39/S39)</f>
-        <v>6.914006780692096E-2</v>
+        <v>0.14558991849893752</v>
       </c>
       <c r="AC39" s="27">
         <f>(V39-S39)^2</f>
@@ -3759,7 +3766,7 @@
         <v>3.9383115140681678E-2</v>
       </c>
     </row>
-    <row r="40" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -3864,7 +3871,7 @@
         <v>-4.767982264286693E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -3900,7 +3907,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="P41" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q41" s="35">
         <v>7</v>
@@ -3912,7 +3919,7 @@
       <c r="T41" s="36"/>
       <c r="U41" s="9">
         <f t="shared" si="14"/>
-        <v>2.3224668277836358</v>
+        <v>2.0571511217836358</v>
       </c>
       <c r="V41">
         <v>2.695195612176859</v>
@@ -3922,7 +3929,7 @@
       </c>
       <c r="Y41" s="27">
         <f t="shared" ref="Y41" si="26">(U41-S41)^2</f>
-        <v>0.12275788292741706</v>
+        <v>0.379066685034046</v>
       </c>
       <c r="Z41" s="28">
         <f t="shared" si="15"/>
@@ -3930,11 +3937,11 @@
       </c>
       <c r="AA41" s="28">
         <f t="shared" si="16"/>
-        <v>6.1022636245017102E-2</v>
+        <v>0.1137059589776645</v>
       </c>
       <c r="AB41" s="29">
         <f t="shared" si="17"/>
-        <v>-6.1022636245017102E-2</v>
+        <v>-0.1137059589776645</v>
       </c>
       <c r="AC41" s="27">
         <f t="shared" si="18"/>
@@ -3969,7 +3976,7 @@
         <v>-2.2311591248746158E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -4005,7 +4012,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="P42" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q42" s="35">
         <v>7</v>
@@ -4017,7 +4024,7 @@
       <c r="T42" s="36"/>
       <c r="U42" s="9">
         <f t="shared" si="14"/>
-        <v>2.7944846110115149</v>
+        <v>2.2638531990115149</v>
       </c>
       <c r="V42">
         <v>3.299860097521639</v>
@@ -4027,7 +4034,7 @@
       </c>
       <c r="Y42" s="27">
         <f>(U42-S42)^2</f>
-        <v>0.17640022253943119</v>
+        <v>0.90370058517858143</v>
       </c>
       <c r="Z42" s="28">
         <f t="shared" si="15"/>
@@ -4035,11 +4042,11 @@
       </c>
       <c r="AA42" s="28">
         <f t="shared" si="16"/>
-        <v>6.0809664423202354E-2</v>
+        <v>0.15226312542932544</v>
       </c>
       <c r="AB42" s="29">
         <f t="shared" si="17"/>
-        <v>-6.0809664423202354E-2</v>
+        <v>-0.15226312542932544</v>
       </c>
       <c r="AC42" s="27">
         <f t="shared" si="18"/>
@@ -4074,7 +4081,7 @@
         <v>-2.5111293606632848E-2</v>
       </c>
     </row>
-    <row r="43" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -4110,7 +4117,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="P43" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q43" s="35">
         <v>7</v>
@@ -4122,7 +4129,7 @@
       <c r="T43" s="36"/>
       <c r="U43" s="9">
         <f t="shared" si="14"/>
-        <v>3.266502394239394</v>
+        <v>2.4705552762393941</v>
       </c>
       <c r="V43">
         <v>3.7024703156964516</v>
@@ -4132,7 +4139,7 @@
       </c>
       <c r="Y43" s="27">
         <f>(U43-S43)^2</f>
-        <v>0.1281523701658632</v>
+        <v>1.3315564639237805</v>
       </c>
       <c r="Z43" s="28">
         <f t="shared" si="15"/>
@@ -4140,11 +4147,11 @@
       </c>
       <c r="AA43" s="28">
         <f t="shared" si="16"/>
-        <v>4.5163463832254419E-2</v>
+        <v>0.1664518694367059</v>
       </c>
       <c r="AB43" s="29">
         <f t="shared" si="17"/>
-        <v>-4.5163463832254419E-2</v>
+        <v>-0.1664518694367059</v>
       </c>
       <c r="AC43" s="27">
         <f t="shared" si="18"/>
@@ -4179,7 +4186,7 @@
         <v>-1.7264233504575538E-2</v>
       </c>
     </row>
-    <row r="44" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -4215,7 +4222,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="P44" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q44" s="56">
         <v>7</v>
@@ -4227,7 +4234,7 @@
       <c r="T44" s="50"/>
       <c r="U44" s="9">
         <f t="shared" si="14"/>
-        <v>3.7385201774672723</v>
+        <v>2.6772573534672723</v>
       </c>
       <c r="V44">
         <v>4.0212982421912145</v>
@@ -4237,7 +4244,7 @@
       </c>
       <c r="Y44" s="27">
         <f>(U44-S44)^2</f>
-        <v>5.6836206163388726E-2</v>
+        <v>1.6891324302684794</v>
       </c>
       <c r="Z44" s="28">
         <f t="shared" si="15"/>
@@ -4245,11 +4252,11 @@
       </c>
       <c r="AA44" s="28">
         <f t="shared" si="16"/>
-        <v>2.684752222679505E-2</v>
+        <v>0.17185713108947859</v>
       </c>
       <c r="AB44" s="29">
         <f t="shared" si="17"/>
-        <v>-2.684752222679505E-2</v>
+        <v>-0.17185713108947859</v>
       </c>
       <c r="AC44" s="27">
         <f t="shared" si="18"/>
@@ -4284,7 +4291,7 @@
         <v>-8.5597177686612576E-3</v>
       </c>
     </row>
-    <row r="45" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -4309,7 +4316,7 @@
       </c>
       <c r="U45" s="9"/>
     </row>
-    <row r="46" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -4344,7 +4351,7 @@
       </c>
       <c r="U46" s="9">
         <f>SUM(Y39:Y44)</f>
-        <v>0.6515350142852564</v>
+        <v>4.6488864314451597</v>
       </c>
       <c r="V46">
         <f>SUM(AC39:AC44)</f>
@@ -4355,7 +4362,7 @@
         <v>0.14155546472891542</v>
       </c>
     </row>
-    <row r="47" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -4394,7 +4401,7 @@
         <v>5.24402568225557</v>
       </c>
     </row>
-    <row r="48" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -4422,7 +4429,7 @@
       </c>
       <c r="U48" s="9">
         <f>1-(U46/U47)</f>
-        <v>0.87575670796390592</v>
+        <v>0.11348900384378513</v>
       </c>
       <c r="V48" s="9">
         <f t="shared" ref="V48:W48" si="27">1-(V46/V47)</f>
@@ -4433,7 +4440,7 @@
         <v>0.97300633648536416</v>
       </c>
     </row>
-    <row r="49" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -4461,7 +4468,7 @@
       </c>
       <c r="U49" s="9">
         <f>SQRT(SUM(Y39:Y44)/(COUNT(Y39:Y44)-1))</f>
-        <v>0.36098061285483363</v>
+        <v>0.96424959750524752</v>
       </c>
       <c r="V49">
         <f>SQRT(SUM(AC39:AC44)/(COUNT(AC39:AC44)-1))</f>
@@ -4472,7 +4479,7 @@
         <v>0.16825900554140655</v>
       </c>
     </row>
-    <row r="50" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -4500,7 +4507,7 @@
       </c>
       <c r="U50" s="9">
         <f>10^(AVERAGE(AA39:AA44))</f>
-        <v>1.1390516897329754</v>
+        <v>1.37306429555627</v>
       </c>
       <c r="V50">
         <f>10^(AVERAGE(AE39:AE44))</f>
@@ -4511,7 +4518,7 @@
         <v>1.0634529875544398</v>
       </c>
     </row>
-    <row r="51" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -4539,7 +4546,7 @@
       </c>
       <c r="U51" s="9">
         <f>10^(AVERAGE(AB39:AB44))</f>
-        <v>0.92577032712621532</v>
+        <v>0.81440250101509959</v>
       </c>
       <c r="V51">
         <f>10^(AVERAGE(AF39:AF44))</f>
@@ -4550,7 +4557,7 @@
         <v>0.96919108214824112</v>
       </c>
     </row>
-    <row r="52" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -4574,7 +4581,7 @@
         <v>0.55257282743295133</v>
       </c>
     </row>
-    <row r="53" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -4619,7 +4626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -4691,7 +4698,7 @@
       <c r="AI54" s="19"/>
       <c r="AJ54" s="20"/>
     </row>
-    <row r="55" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -4737,7 +4744,7 @@
       <c r="AI55" s="28"/>
       <c r="AJ55" s="29"/>
     </row>
-    <row r="56" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -4773,7 +4780,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="P56" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="35">
         <v>7</v>
@@ -4785,7 +4792,7 @@
       <c r="T56" s="36"/>
       <c r="U56" s="9">
         <f t="shared" ref="U56:U65" si="28">$R$2+$L$2*L56+$M$2*M56+$N$2*N56+$O$2*O56+$P$2*P56+$Q$2*Q56</f>
-        <v>1.0224222919999999</v>
+        <v>1.8183694099999999</v>
       </c>
       <c r="V56">
         <v>0.76892103111998622</v>
@@ -4795,7 +4802,7 @@
       </c>
       <c r="Y56" s="27">
         <f t="shared" ref="Y56:Y65" si="29">(U56-S56)^2</f>
-        <v>5.1205757724830013E-2</v>
+        <v>1.0449623722569006</v>
       </c>
       <c r="Z56" s="28">
         <f>(S56-$S$67)^2</f>
@@ -4803,11 +4810,11 @@
       </c>
       <c r="AA56" s="28">
         <f>ABS(LOG(U56/S56))</f>
-        <v>0.108643375010795</v>
+        <v>0.35869518186146632</v>
       </c>
       <c r="AB56" s="29">
         <f>LOG(U56/S56)</f>
-        <v>0.108643375010795</v>
+        <v>0.35869518186146632</v>
       </c>
       <c r="AC56" s="27">
         <f>(V56-S56)^2</f>
@@ -4842,7 +4849,7 @@
         <v>0.15108881893038853</v>
       </c>
     </row>
-    <row r="57" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -4878,7 +4885,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="P57" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="35">
         <v>7</v>
@@ -4890,7 +4897,7 @@
       <c r="T57" s="36"/>
       <c r="U57" s="9">
         <f t="shared" si="28"/>
-        <v>1.4037468119000005</v>
+        <v>2.1996939299000005</v>
       </c>
       <c r="V57">
         <v>1.5247974388614292</v>
@@ -4900,7 +4907,7 @@
       </c>
       <c r="Y57" s="27">
         <f t="shared" si="29"/>
-        <v>1.0695993861065879E-6</v>
+        <v>0.63188652433980552</v>
       </c>
       <c r="Z57" s="28">
         <f t="shared" ref="Z57:Z65" si="30">(S57-$S$67)^2</f>
@@ -4908,11 +4915,11 @@
       </c>
       <c r="AA57" s="28">
         <f>ABS(LOG(U57/S57))</f>
-        <v>3.1984986085548735E-4</v>
+        <v>0.19475362357676493</v>
       </c>
       <c r="AB57" s="29">
         <f t="shared" ref="AB57:AB65" si="31">LOG(U57/S57)</f>
-        <v>-3.1984986085548735E-4</v>
+        <v>0.19475362357676493</v>
       </c>
       <c r="AC57" s="27">
         <f t="shared" ref="AC57:AC65" si="32">(V57-S57)^2</f>
@@ -4947,7 +4954,7 @@
         <v>9.0713509018160554E-2</v>
       </c>
     </row>
-    <row r="58" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="P58" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="35">
         <v>7</v>
@@ -4995,7 +5002,7 @@
       <c r="T58" s="36"/>
       <c r="U58" s="9">
         <f t="shared" si="28"/>
-        <v>1.7842220567</v>
+        <v>2.5801691747</v>
       </c>
       <c r="V58">
         <v>2.240445306159514</v>
@@ -5005,7 +5012,7 @@
       </c>
       <c r="Y58" s="27">
         <f t="shared" si="29"/>
-        <v>2.5647892011524516E-2</v>
+        <v>0.40423849329849676</v>
       </c>
       <c r="Z58" s="28">
         <f t="shared" si="30"/>
@@ -5013,11 +5020,11 @@
       </c>
       <c r="AA58" s="28">
         <f>ABS(LOG(U58/S58))</f>
-        <v>3.7330376192111624E-2</v>
+        <v>0.12286890236614437</v>
       </c>
       <c r="AB58" s="29">
         <f t="shared" si="31"/>
-        <v>-3.7330376192111624E-2</v>
+        <v>0.12286890236614437</v>
       </c>
       <c r="AC58" s="27">
         <f t="shared" si="32"/>
@@ -5052,7 +5059,7 @@
         <v>5.849001463635975E-2</v>
       </c>
     </row>
-    <row r="59" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -5088,7 +5095,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="P59" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="35">
         <v>7</v>
@@ -5100,7 +5107,7 @@
       <c r="T59" s="36"/>
       <c r="U59" s="9">
         <f t="shared" si="28"/>
-        <v>2.1655465765999997</v>
+        <v>2.9614936945999997</v>
       </c>
       <c r="V59">
         <v>2.8568676540932127</v>
@@ -5110,7 +5117,7 @@
       </c>
       <c r="Y59" s="27">
         <f t="shared" si="29"/>
-        <v>0.12045377499308448</v>
+        <v>0.20149559461178543</v>
       </c>
       <c r="Z59" s="28">
         <f t="shared" si="30"/>
@@ -5118,11 +5125,11 @@
       </c>
       <c r="AA59" s="28">
         <f>ABS(LOG(U59/S59))</f>
-        <v>6.4557742959589701E-2</v>
+        <v>7.1385540372800413E-2</v>
       </c>
       <c r="AB59" s="29">
         <f t="shared" si="31"/>
-        <v>-6.4557742959589701E-2</v>
+        <v>7.1385540372800413E-2</v>
       </c>
       <c r="AC59" s="27">
         <f t="shared" si="32"/>
@@ -5157,7 +5164,7 @@
         <v>2.444325786552402E-2</v>
       </c>
     </row>
-    <row r="60" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -5193,7 +5200,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="P60" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="35">
         <v>7</v>
@@ -5205,7 +5212,7 @@
       <c r="T60" s="36"/>
       <c r="U60" s="9">
         <f t="shared" si="28"/>
-        <v>2.5468710965000003</v>
+        <v>3.3428182145000003</v>
       </c>
       <c r="V60">
         <v>3.3179981415405697</v>
@@ -5215,7 +5222,7 @@
       </c>
       <c r="Y60" s="27">
         <f t="shared" si="29"/>
-        <v>4.5736045702358688E-2</v>
+        <v>0.33882555964095357</v>
       </c>
       <c r="Z60" s="28">
         <f t="shared" si="30"/>
@@ -5223,11 +5230,11 @@
       </c>
       <c r="AA60" s="28">
         <f t="shared" ref="AA60" si="40">ABS(LOG(U60/S60))</f>
-        <v>3.5017122496728455E-2</v>
+        <v>8.3088672615729248E-2</v>
       </c>
       <c r="AB60" s="29">
         <f t="shared" si="31"/>
-        <v>-3.5017122496728455E-2</v>
+        <v>8.3088672615729248E-2</v>
       </c>
       <c r="AC60" s="27">
         <f t="shared" si="32"/>
@@ -5262,7 +5269,7 @@
         <v>4.35023873792428E-2</v>
       </c>
     </row>
-    <row r="61" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -5298,7 +5305,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="P61" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="35">
         <v>7</v>
@@ -5310,7 +5317,7 @@
       <c r="T61" s="36"/>
       <c r="U61" s="9">
         <f t="shared" si="28"/>
-        <v>2.9281956164</v>
+        <v>3.7241427344</v>
       </c>
       <c r="V61">
         <v>3.6481205254475393</v>
@@ -5320,7 +5327,7 @@
       </c>
       <c r="Y61" s="27">
         <f t="shared" si="29"/>
-        <v>0.11034862833993336</v>
+        <v>0.21507285319587466</v>
       </c>
       <c r="Z61" s="28">
         <f t="shared" si="30"/>
@@ -5328,11 +5335,11 @@
       </c>
       <c r="AA61" s="28">
         <f>ABS(LOG(U61/S61))</f>
-        <v>4.666856805432245E-2</v>
+        <v>5.7757663538107809E-2</v>
       </c>
       <c r="AB61" s="29">
         <f t="shared" si="31"/>
-        <v>-4.666856805432245E-2</v>
+        <v>5.7757663538107809E-2</v>
       </c>
       <c r="AC61" s="27">
         <f t="shared" si="32"/>
@@ -5367,7 +5374,7 @@
         <v>2.0247028474049304E-2</v>
       </c>
     </row>
-    <row r="62" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -5403,7 +5410,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="P62" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="35">
         <v>7</v>
@@ -5415,7 +5422,7 @@
       <c r="T62" s="36"/>
       <c r="U62" s="9">
         <f t="shared" si="28"/>
-        <v>3.3095201362999997</v>
+        <v>4.1054672542999997</v>
       </c>
       <c r="V62">
         <v>3.9146254621223999</v>
@@ -5425,7 +5432,7 @@
       </c>
       <c r="Y62" s="27">
         <f t="shared" si="29"/>
-        <v>0.14941587530216918</v>
+        <v>0.16761132464517775</v>
       </c>
       <c r="Z62" s="28">
         <f t="shared" si="30"/>
@@ -5433,11 +5440,11 @@
       </c>
       <c r="AA62" s="28">
         <f>ABS(LOG(U62/S62))</f>
-        <v>4.7974411845949951E-2</v>
+        <v>4.5623152814042264E-2</v>
       </c>
       <c r="AB62" s="29">
         <f t="shared" si="31"/>
-        <v>-4.7974411845949951E-2</v>
+        <v>4.5623152814042264E-2</v>
       </c>
       <c r="AC62" s="27">
         <f t="shared" si="32"/>
@@ -5472,7 +5479,7 @@
         <v>7.1960281839607973E-3</v>
       </c>
     </row>
-    <row r="63" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -5508,7 +5515,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="P63" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="35">
         <v>7</v>
@@ -5520,7 +5527,7 @@
       <c r="T63" s="36"/>
       <c r="U63" s="9">
         <f t="shared" si="28"/>
-        <v>3.6899953811000001</v>
+        <v>4.4859424991000001</v>
       </c>
       <c r="V63">
         <v>4.1588123086735775</v>
@@ -5530,7 +5537,7 @@
       </c>
       <c r="Y63" s="27">
         <f t="shared" si="29"/>
-        <v>7.2553667460801871E-2</v>
+        <v>0.27729622568942636</v>
       </c>
       <c r="Z63" s="28">
         <f t="shared" si="30"/>
@@ -5538,11 +5545,11 @@
       </c>
       <c r="AA63" s="28">
         <f>ABS(LOG(U63/S63))</f>
-        <v>3.0598429519414216E-2</v>
+        <v>5.4229450430552342E-2</v>
       </c>
       <c r="AB63" s="29">
         <f t="shared" si="31"/>
-        <v>-3.0598429519414216E-2</v>
+        <v>5.4229450430552342E-2</v>
       </c>
       <c r="AC63" s="27">
         <f t="shared" si="32"/>
@@ -5577,7 +5584,7 @@
         <v>1.3190665739429832E-2</v>
       </c>
     </row>
-    <row r="64" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -5613,7 +5620,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="P64" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="35">
         <v>7</v>
@@ -5625,7 +5632,7 @@
       <c r="T64" s="36"/>
       <c r="U64" s="9">
         <f t="shared" si="28"/>
-        <v>4.0713199009999999</v>
+        <v>4.8672670189999998</v>
       </c>
       <c r="V64">
         <v>4.3961460516291826</v>
@@ -5635,7 +5642,7 @@
       </c>
       <c r="Y64" s="27">
         <f t="shared" si="29"/>
-        <v>5.9134175385738945E-2</v>
+        <v>0.305556799033398</v>
       </c>
       <c r="Z64" s="28">
         <f t="shared" si="30"/>
@@ -5643,11 +5650,11 @@
       </c>
       <c r="AA64" s="28">
         <f>ABS(LOG(U64/S64))</f>
-        <v>2.519475158256871E-2</v>
+        <v>5.2355192681872713E-2</v>
       </c>
       <c r="AB64" s="29">
         <f t="shared" si="31"/>
-        <v>-2.519475158256871E-2</v>
+        <v>5.2355192681872713E-2</v>
       </c>
       <c r="AC64" s="27">
         <f t="shared" si="32"/>
@@ -5682,7 +5689,7 @@
         <v>7.5328558690311602E-3</v>
       </c>
     </row>
-    <row r="65" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -5718,7 +5725,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="P65" s="35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="56">
         <v>7</v>
@@ -5730,7 +5737,7 @@
       <c r="T65" s="50"/>
       <c r="U65" s="9">
         <f t="shared" si="28"/>
-        <v>4.4526444208999987</v>
+        <v>5.2485915388999995</v>
       </c>
       <c r="V65">
         <v>4.6314657955673315</v>
@@ -5740,7 +5747,7 @@
       </c>
       <c r="Y65" s="27">
         <f t="shared" si="29"/>
-        <v>3.4435842450511733E-3</v>
+        <v>0.5435597647526027</v>
       </c>
       <c r="Z65" s="28">
         <f t="shared" si="30"/>
@@ -5748,11 +5755,11 @@
       </c>
       <c r="AA65" s="28">
         <f>ABS(LOG(U65/S65))</f>
-        <v>5.6862431814833523E-3</v>
+        <v>6.5738518160910309E-2</v>
       </c>
       <c r="AB65" s="29">
         <f t="shared" si="31"/>
-        <v>-5.6862431814833523E-3</v>
+        <v>6.5738518160910309E-2</v>
       </c>
       <c r="AC65" s="27">
         <f t="shared" si="32"/>
@@ -5787,7 +5794,7 @@
         <v>1.6468604836756839E-2</v>
       </c>
     </row>
-    <row r="66" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -5812,7 +5819,7 @@
       </c>
       <c r="U66" s="9"/>
     </row>
-    <row r="67" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -5847,7 +5854,7 @@
       </c>
       <c r="U67" s="9">
         <f>SUM(Y56:Y65)</f>
-        <v>0.63794047076487836</v>
+        <v>4.1305055114644214</v>
       </c>
       <c r="V67">
         <f>SUM(AC56:AC65)</f>
@@ -5858,7 +5865,7 @@
         <v>0.47958798590226087</v>
       </c>
     </row>
-    <row r="68" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C68" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -5897,7 +5904,7 @@
         <v>14.225041685581758</v>
       </c>
     </row>
-    <row r="69" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C69" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -5925,7 +5932,7 @@
       </c>
       <c r="U69" s="9">
         <f>1-(U67/U68)</f>
-        <v>0.95515370113737641</v>
+        <v>0.70963139491879124</v>
       </c>
       <c r="V69" s="9">
         <f t="shared" ref="V69:W69" si="41">1-(V67/V68)</f>
@@ -5936,7 +5943,7 @@
         <v>0.96628565339190797</v>
       </c>
     </row>
-    <row r="70" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C70" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -5964,7 +5971,7 @@
       </c>
       <c r="U70" s="9">
         <f>SQRT(SUM(Y56:Y65)/(COUNT(Y56:Y65)-1))</f>
-        <v>0.26623725233225898</v>
+        <v>0.67745483748319346</v>
       </c>
       <c r="V70">
         <f>SQRT(SUM(AC56:AC65)/(COUNT(AC56:AC65)-1))</f>
@@ -5975,7 +5982,7 @@
         <v>0.23084097120992214</v>
       </c>
     </row>
-    <row r="71" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C71" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -6003,7 +6010,7 @@
       </c>
       <c r="U71" s="9">
         <f>10^(AVERAGE(AA56:AA65))</f>
-        <v>1.0969809533351611</v>
+        <v>1.2901778745495538</v>
       </c>
       <c r="V71">
         <f>10^(AVERAGE(AE56:AE65))</f>
@@ -6014,7 +6021,7 @@
         <v>1.1048092891331203</v>
       </c>
     </row>
-    <row r="72" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C72" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -6042,7 +6049,7 @@
       </c>
       <c r="U72" s="9">
         <f>10^(AVERAGE(AB56:AB65))</f>
-        <v>0.9583620060692648</v>
+        <v>1.2901778745495538</v>
       </c>
       <c r="V72">
         <f>10^(AVERAGE(AF56:AF65))</f>
@@ -6053,7 +6060,7 @@
         <v>1.1048092891331203</v>
       </c>
     </row>
-    <row r="73" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C73" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -6077,7 +6084,7 @@
         <v>0.59529170166627732</v>
       </c>
     </row>
-    <row r="74" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C74" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -6116,7 +6123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -6180,7 +6187,7 @@
       <c r="AE75" s="19"/>
       <c r="AF75" s="20"/>
     </row>
-    <row r="76" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C76" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -6222,7 +6229,7 @@
       <c r="AE76" s="28"/>
       <c r="AF76" s="29"/>
     </row>
-    <row r="77" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C77" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -6258,7 +6265,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="P77" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="2">
         <v>5.5</v>
@@ -6270,14 +6277,14 @@
       <c r="T77" s="36"/>
       <c r="U77" s="9">
         <f t="shared" ref="U77:U82" si="42">$R$2+$L$2*L77+$M$2*M77+$N$2*N77+$O$2*O77+$P$2*P77+$Q$2*Q77</f>
-        <v>2.3216937281006063</v>
+        <v>2.5870094341006062</v>
       </c>
       <c r="V77">
         <v>1.9718197706541707</v>
       </c>
       <c r="Y77" s="27">
         <f>(U77-S77)^2</f>
-        <v>1.5037542227090822E-4</v>
+        <v>7.7049807943561963E-2</v>
       </c>
       <c r="Z77" s="28">
         <f>(S77-$S$84)^2</f>
@@ -6285,11 +6292,11 @@
       </c>
       <c r="AA77" s="28">
         <f>ABS(LOG(U77/S77))</f>
-        <v>2.2999440840003578E-3</v>
+        <v>4.9293028390442646E-2</v>
       </c>
       <c r="AB77" s="29">
         <f>LOG(U77/S77)</f>
-        <v>2.2999440840003578E-3</v>
+        <v>4.9293028390442646E-2</v>
       </c>
       <c r="AC77" s="27">
         <f>(V77-S77)^2</f>
@@ -6308,7 +6315,7 @@
         <v>-6.8637767281439416E-2</v>
       </c>
     </row>
-    <row r="78" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C78" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -6394,7 +6401,7 @@
         <v>-4.3414534295189842E-2</v>
       </c>
     </row>
-    <row r="79" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C79" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -6430,7 +6437,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="P79" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q79" s="2">
         <v>5.5</v>
@@ -6442,14 +6449,14 @@
       <c r="T79" s="36"/>
       <c r="U79" s="9">
         <f t="shared" si="42"/>
-        <v>3.2657292945563627</v>
+        <v>3.0004135885563628</v>
       </c>
       <c r="V79">
         <v>3.2440671737024798</v>
       </c>
       <c r="Y79" s="27">
         <f t="shared" ref="Y79" si="50">(U79-S79)^2</f>
-        <v>6.9924528521984511E-2</v>
+        <v>0.28063312462978168</v>
       </c>
       <c r="Z79" s="28">
         <f t="shared" si="43"/>
@@ -6457,11 +6464,11 @@
       </c>
       <c r="AA79" s="28">
         <f t="shared" si="44"/>
-        <v>3.381442413229286E-2</v>
+        <v>7.0613482470671951E-2</v>
       </c>
       <c r="AB79" s="29">
         <f t="shared" si="45"/>
-        <v>-3.381442413229286E-2</v>
+        <v>-7.0613482470671951E-2</v>
       </c>
       <c r="AC79" s="27">
         <f t="shared" si="46"/>
@@ -6480,7 +6487,7 @@
         <v>-3.670476773162893E-2</v>
       </c>
     </row>
-    <row r="80" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C80" s="38">
         <v>4.545454545454545</v>
       </c>
@@ -6516,7 +6523,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="P80" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q80" s="2">
         <v>5.5</v>
@@ -6528,14 +6535,14 @@
       <c r="T80" s="36"/>
       <c r="U80" s="9">
         <f>$R$2+$L$2*L80+$M$2*M80+$N$2*N80+$O$2*O80+$P$2*P80+$Q$2*Q80</f>
-        <v>3.7377470777842419</v>
+        <v>3.2071156657842419</v>
       </c>
       <c r="V80">
         <v>3.6963257837908206</v>
       </c>
       <c r="Y80" s="27">
         <f>(U80-S80)^2</f>
-        <v>9.3122677042925626E-3</v>
+        <v>0.39329392297321242</v>
       </c>
       <c r="Z80" s="28">
         <f t="shared" si="43"/>
@@ -6543,11 +6550,11 @@
       </c>
       <c r="AA80" s="28">
         <f t="shared" si="44"/>
-        <v>1.1070195023570518E-2</v>
+        <v>7.7565482447961534E-2</v>
       </c>
       <c r="AB80" s="29">
         <f t="shared" si="45"/>
-        <v>-1.1070195023570518E-2</v>
+        <v>-7.7565482447961534E-2</v>
       </c>
       <c r="AC80" s="27">
         <f t="shared" si="46"/>
@@ -6566,7 +6573,7 @@
         <v>-1.5909863913159308E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C81" s="38">
         <v>9.0909090909090899</v>
       </c>
@@ -6602,7 +6609,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="P81" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q81" s="2">
         <v>5.5</v>
@@ -6614,14 +6621,14 @@
       <c r="T81" s="36"/>
       <c r="U81" s="9">
         <f t="shared" si="42"/>
-        <v>4.209764861012121</v>
+        <v>3.413817743012121</v>
       </c>
       <c r="V81">
         <v>4.0900610333506435</v>
       </c>
       <c r="Y81" s="27">
         <f>(U81-S81)^2</f>
-        <v>9.0550646320541851E-4</v>
+        <v>0.58653462170058013</v>
       </c>
       <c r="Z81" s="28">
         <f t="shared" si="43"/>
@@ -6629,11 +6636,11 @@
       </c>
       <c r="AA81" s="28">
         <f t="shared" si="44"/>
-        <v>3.1155094529525798E-3</v>
+        <v>8.7901998003722698E-2</v>
       </c>
       <c r="AB81" s="29">
         <f t="shared" si="45"/>
-        <v>3.1155094529525798E-3</v>
+        <v>-8.7901998003722698E-2</v>
       </c>
       <c r="AC81" s="27">
         <f t="shared" si="46"/>
@@ -6652,7 +6659,7 @@
         <v>-9.4125405236066811E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -6688,7 +6695,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="P82" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q82" s="61">
         <v>5.5</v>
@@ -6700,14 +6707,14 @@
       <c r="T82" s="50"/>
       <c r="U82" s="9">
         <f t="shared" si="42"/>
-        <v>4.6817826442399992</v>
+        <v>3.6205198202399993</v>
       </c>
       <c r="V82">
         <v>4.4426764804588341</v>
       </c>
       <c r="Y82" s="27">
         <f>(U82-S82)^2</f>
-        <v>0.10103465324854553</v>
+        <v>0.5526485219944749</v>
       </c>
       <c r="Z82" s="28">
         <f t="shared" si="43"/>
@@ -6715,11 +6722,11 @@
       </c>
       <c r="AA82" s="28">
         <f t="shared" si="44"/>
-        <v>3.053415265295047E-2</v>
+        <v>8.1106165350473033E-2</v>
       </c>
       <c r="AB82" s="29">
         <f t="shared" si="45"/>
-        <v>3.053415265295047E-2</v>
+        <v>-8.1106165350473033E-2</v>
       </c>
       <c r="AC82" s="27">
         <f t="shared" si="46"/>
@@ -6738,7 +6745,7 @@
         <v>7.767594009552875E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C83" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -6763,7 +6770,7 @@
       </c>
       <c r="U83" s="9"/>
     </row>
-    <row r="84" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -6798,14 +6805,14 @@
       </c>
       <c r="U84" s="9">
         <f>SUM(Y77:Y82)</f>
-        <v>0.21748143522050772</v>
+        <v>1.9263141031018196</v>
       </c>
       <c r="V84">
         <f>SUM(AC77:AC82)</f>
         <v>0.30966182655691082</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C85" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -6840,7 +6847,7 @@
         <v>2.998058362922658</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C86" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -6868,14 +6875,14 @@
       </c>
       <c r="U86" s="9">
         <f>1-(U84/U85)</f>
-        <v>0.92745923898276084</v>
+        <v>0.35747945172623263</v>
       </c>
       <c r="V86" s="9">
         <f>1-(V84/V85)</f>
         <v>0.89671254222848518</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C87" s="38">
         <v>22.727272727272727</v>
       </c>
@@ -6903,14 +6910,14 @@
       </c>
       <c r="U87" s="9">
         <f>SQRT(SUM(Y77:Y82)/(COUNT(Y77:Y82)-1))</f>
-        <v>0.20855763482572759</v>
+        <v>0.62069543305905184</v>
       </c>
       <c r="V87">
         <f>SQRT(SUM(AC77:AC82)/(COUNT(AC77:AC82)-1))</f>
         <v>0.24886214117736383</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C88" s="38">
         <v>13.636363636363635</v>
       </c>
@@ -6938,14 +6945,14 @@
       </c>
       <c r="U88" s="9">
         <f>10^(AVERAGE(AA77:AA82))</f>
-        <v>1.0428896777058974</v>
+        <v>1.1637133704099227</v>
       </c>
       <c r="V88">
         <f>10^(AVERAGE(AE77:AE82))</f>
         <v>1.0722791085741417</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C89" s="38">
         <v>18.18181818181818</v>
       </c>
@@ -6973,14 +6980,14 @@
       </c>
       <c r="U89" s="9">
         <f>10^(AVERAGE(AB77:AB82))</f>
-        <v>0.98570017381388819</v>
+        <v>0.89245224284255809</v>
       </c>
       <c r="V89">
         <f>10^(AVERAGE(AF77:AF82))</f>
         <v>0.93816959397174615</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C90" s="59">
         <v>22.727272727272727</v>
       </c>
@@ -7004,7 +7011,7 @@
         <v>1.6244809151015047</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>30</v>
       </c>
@@ -7021,7 +7028,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="G91" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="23">
         <v>7</v>
@@ -7031,7 +7038,7 @@
         <v>0.24217805848915752</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C92" s="68">
         <v>10</v>
       </c>
@@ -7055,7 +7062,7 @@
         <v>0.4640472445311985</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C93" s="68">
         <v>10</v>
       </c>
@@ -7069,7 +7076,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G93" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93" s="35">
         <v>7</v>
@@ -7079,7 +7086,7 @@
         <v>0.65672268521320709</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C94" s="68">
         <v>10</v>
       </c>
@@ -7093,7 +7100,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G94" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H94" s="35">
         <v>7</v>
@@ -7103,7 +7110,7 @@
         <v>0.78748341240336084</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C95" s="68">
         <v>10</v>
       </c>
@@ -7117,7 +7124,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G95" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H95" s="35">
         <v>7</v>
@@ -7127,7 +7134,7 @@
         <v>0.92445662150738606</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="68">
         <v>10</v>
       </c>
@@ -7141,7 +7148,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="G96" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H96" s="35">
         <v>7</v>
@@ -7151,7 +7158,7 @@
         <v>0.98298797855206266</v>
       </c>
     </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C97" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -7164,8 +7171,8 @@
       <c r="F97" s="35">
         <v>5.5578902905298734E-4</v>
       </c>
-      <c r="G97" s="35">
-        <v>2</v>
+      <c r="G97" s="23">
+        <v>1</v>
       </c>
       <c r="H97" s="35">
         <v>7</v>
@@ -7175,7 +7182,7 @@
         <v>0.83819112858230871</v>
       </c>
     </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C98" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -7199,7 +7206,7 @@
         <v>1.6454695369784378</v>
       </c>
     </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C99" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -7213,7 +7220,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G99" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" s="35">
         <v>7</v>
@@ -7223,7 +7230,7 @@
         <v>2.0841755122419423</v>
       </c>
     </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -7237,7 +7244,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G100" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H100" s="35">
         <v>7</v>
@@ -7247,7 +7254,7 @@
         <v>2.4586428907898288</v>
       </c>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -7261,7 +7268,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G101" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101" s="35">
         <v>7</v>
@@ -7271,7 +7278,7 @@
         <v>2.6608932334948201</v>
       </c>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C102" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -7285,7 +7292,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="G102" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H102" s="35">
         <v>7</v>
@@ -7295,7 +7302,7 @@
         <v>2.8391202597386371</v>
       </c>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="70">
         <v>16</v>
       </c>
@@ -7308,8 +7315,8 @@
       <c r="F103" s="35">
         <v>5.5578902905298734E-4</v>
       </c>
-      <c r="G103" s="35">
-        <v>2</v>
+      <c r="G103" s="23">
+        <v>1</v>
       </c>
       <c r="H103" s="35">
         <v>7</v>
@@ -7319,7 +7326,7 @@
         <v>1.085523141330788</v>
       </c>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C104" s="70">
         <v>16</v>
       </c>
@@ -7343,7 +7350,7 @@
         <v>2.24015296530514</v>
       </c>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C105" s="70">
         <v>16</v>
       </c>
@@ -7357,7 +7364,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G105" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H105" s="35">
         <v>7</v>
@@ -7367,7 +7374,7 @@
         <v>2.7358806288807274</v>
       </c>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C106" s="70">
         <v>16</v>
       </c>
@@ -7381,7 +7388,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G106" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H106" s="35">
         <v>7</v>
@@ -7391,7 +7398,7 @@
         <v>3.2118042270162919</v>
       </c>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C107" s="70">
         <v>16</v>
       </c>
@@ -7405,7 +7412,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G107" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H107" s="35">
         <v>7</v>
@@ -7415,7 +7422,7 @@
         <v>3.5756513048152487</v>
       </c>
     </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C108" s="70">
         <v>16</v>
       </c>
@@ -7429,7 +7436,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="G108" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H108" s="35">
         <v>7</v>
@@ -7439,7 +7446,7 @@
         <v>3.8726257118704428</v>
       </c>
     </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C109" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7452,8 +7459,8 @@
       <c r="F109" s="35">
         <v>5.5578902905298734E-4</v>
       </c>
-      <c r="G109" s="35">
-        <v>2</v>
+      <c r="G109" s="23">
+        <v>1</v>
       </c>
       <c r="H109" s="35">
         <v>7</v>
@@ -7463,7 +7470,7 @@
         <v>1.2037467605200132</v>
       </c>
     </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C110" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7487,7 +7494,7 @@
         <v>2.309038041638396</v>
       </c>
     </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C111" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7501,7 +7508,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G111" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" s="35">
         <v>7</v>
@@ -7511,7 +7518,7 @@
         <v>3.1488778563286646</v>
       </c>
     </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C112" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7525,7 +7532,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G112" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H112" s="35">
         <v>7</v>
@@ -7535,7 +7542,7 @@
         <v>3.537144166972034</v>
       </c>
     </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C113" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7549,7 +7556,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G113" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H113" s="35">
         <v>7</v>
@@ -7559,7 +7566,7 @@
         <v>3.9804923777206596</v>
       </c>
     </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7573,7 +7580,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="G114" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H114" s="35">
         <v>7</v>
@@ -7583,7 +7590,7 @@
         <v>4.2178553484963928</v>
       </c>
     </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C115" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -7596,8 +7603,8 @@
       <c r="F115" s="35">
         <v>5.5578902905298734E-4</v>
       </c>
-      <c r="G115" s="35">
-        <v>2</v>
+      <c r="G115" s="23">
+        <v>1</v>
       </c>
       <c r="H115" s="35">
         <v>7</v>
@@ -7607,7 +7614,7 @@
         <v>1.5769320088505716</v>
       </c>
     </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C116" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -7631,7 +7638,7 @@
         <v>3.0003759768373817</v>
       </c>
     </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C117" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -7645,7 +7652,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G117" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" s="35">
         <v>7</v>
@@ -7655,7 +7662,7 @@
         <v>3.8290669521589025</v>
       </c>
     </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C118" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -7669,7 +7676,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G118" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H118" s="35">
         <v>7</v>
@@ -7679,7 +7686,7 @@
         <v>4.6044542472196097</v>
       </c>
     </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C119" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -7693,7 +7700,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G119" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H119" s="35">
         <v>7</v>
@@ -7703,7 +7710,7 @@
         <v>5.1436109480995507</v>
       </c>
     </row>
-    <row r="120" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C120" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -7717,7 +7724,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="G120" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H120" s="35">
         <v>7</v>
@@ -7727,7 +7734,7 @@
         <v>5.2784561979736591</v>
       </c>
     </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C121" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7740,8 +7747,8 @@
       <c r="F121" s="35">
         <v>5.5578902905298734E-4</v>
       </c>
-      <c r="G121" s="35">
-        <v>2</v>
+      <c r="G121" s="23">
+        <v>1</v>
       </c>
       <c r="H121" s="35">
         <v>7</v>
@@ -7751,7 +7758,7 @@
         <v>1.1858959941475549</v>
       </c>
     </row>
-    <row r="122" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C122" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7775,7 +7782,7 @@
         <v>2.1014278300635825</v>
       </c>
     </row>
-    <row r="123" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C123" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7789,7 +7796,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G123" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" s="35">
         <v>7</v>
@@ -7799,7 +7806,7 @@
         <v>2.7837728115449778</v>
       </c>
     </row>
-    <row r="124" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C124" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7813,7 +7820,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G124" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H124" s="35">
         <v>7</v>
@@ -7823,7 +7830,7 @@
         <v>3.3113595101997029</v>
       </c>
     </row>
-    <row r="125" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C125" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7837,7 +7844,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G125" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H125" s="35">
         <v>7</v>
@@ -7847,7 +7854,7 @@
         <v>3.5458926348330291</v>
       </c>
     </row>
-    <row r="126" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C126" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7861,7 +7868,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="G126" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H126" s="35">
         <v>7</v>
@@ -7871,7 +7878,7 @@
         <v>3.815482530467639</v>
       </c>
     </row>
-    <row r="127" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C127" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7884,8 +7891,8 @@
       <c r="F127" s="35">
         <v>5.5578902905298734E-4</v>
       </c>
-      <c r="G127" s="35">
-        <v>2</v>
+      <c r="G127" s="23">
+        <v>1</v>
       </c>
       <c r="H127" s="35">
         <v>7</v>
@@ -7895,7 +7902,7 @@
         <v>0.73107544349077769</v>
       </c>
     </row>
-    <row r="128" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C128" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7919,7 +7926,7 @@
         <v>1.3104036862347477</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C129" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7933,7 +7940,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G129" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H129" s="35">
         <v>7</v>
@@ -7943,7 +7950,7 @@
         <v>1.8554389804736231</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C130" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7957,7 +7964,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G130" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H130" s="35">
         <v>7</v>
@@ -7967,7 +7974,7 @@
         <v>2.3133783524913483</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C131" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -7981,7 +7988,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G131" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H131" s="35">
         <v>7</v>
@@ -7991,7 +7998,7 @@
         <v>2.572336015365742</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C132" s="74">
         <v>18.18181818181818</v>
       </c>
@@ -8004,8 +8011,8 @@
       <c r="F132" s="56">
         <v>3.334734174317924E-3</v>
       </c>
-      <c r="G132" s="56">
-        <v>2</v>
+      <c r="G132" s="35">
+        <v>6</v>
       </c>
       <c r="H132" s="56">
         <v>7</v>
@@ -8015,7 +8022,7 @@
         <v>2.8220348400811495</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A133" s="8" t="s">
         <v>31</v>
       </c>
@@ -8032,7 +8039,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="G133" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H133" s="23">
         <v>7</v>
@@ -8042,7 +8049,7 @@
         <v>0.39848355649264472</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C134" s="68">
         <v>10</v>
       </c>
@@ -8056,7 +8063,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="G134" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H134" s="2">
         <v>7</v>
@@ -8066,7 +8073,7 @@
         <v>0.62590598649689988</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C135" s="68">
         <v>10</v>
       </c>
@@ -8080,7 +8087,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="G135" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H135" s="2">
         <v>7</v>
@@ -8090,7 +8097,7 @@
         <v>0.8171625812196549</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C136" s="68">
         <v>10</v>
       </c>
@@ -8104,7 +8111,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="G136" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H136" s="2">
         <v>7</v>
@@ -8114,7 +8121,7 @@
         <v>0.91416602056260654</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C137" s="68">
         <v>10</v>
       </c>
@@ -8128,7 +8135,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="G137" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H137" s="2">
         <v>7</v>
@@ -8138,7 +8145,7 @@
         <v>0.98616765149289898</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C138" s="68">
         <v>10</v>
       </c>
@@ -8152,7 +8159,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="G138" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H138" s="2">
         <v>7</v>
@@ -8162,7 +8169,7 @@
         <v>1.0528419686577808</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C139" s="68">
         <v>10</v>
       </c>
@@ -8176,7 +8183,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="G139" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H139" s="2">
         <v>7</v>
@@ -8186,7 +8193,7 @@
         <v>1.0902280322290658</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C140" s="68">
         <v>10</v>
       </c>
@@ -8200,7 +8207,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="G140" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H140" s="2">
         <v>7</v>
@@ -8210,7 +8217,7 @@
         <v>1.1319579916978646</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C141" s="68">
         <v>10</v>
       </c>
@@ -8224,7 +8231,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="G141" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H141" s="2">
         <v>7</v>
@@ -8234,7 +8241,7 @@
         <v>1.1864195238126123</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C142" s="68">
         <v>10</v>
       </c>
@@ -8248,7 +8255,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="G142" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H142" s="2">
         <v>7</v>
@@ -8258,7 +8265,7 @@
         <v>1.2269607449677253</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C143" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -8272,7 +8279,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="G143" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H143" s="2">
         <v>7</v>
@@ -8282,7 +8289,7 @@
         <v>0.65641226167148381</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C144" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -8296,7 +8303,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="G144" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H144" s="2">
         <v>7</v>
@@ -8306,7 +8313,7 @@
         <v>1.213472155768111</v>
       </c>
     </row>
-    <row r="145" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C145" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="G145" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H145" s="2">
         <v>7</v>
@@ -8330,7 +8337,7 @@
         <v>1.601335257451955</v>
       </c>
     </row>
-    <row r="146" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C146" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -8344,7 +8351,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="G146" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H146" s="2">
         <v>7</v>
@@ -8354,7 +8361,7 @@
         <v>2.0252199171948</v>
       </c>
     </row>
-    <row r="147" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C147" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -8368,7 +8375,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="G147" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H147" s="2">
         <v>7</v>
@@ -8378,7 +8385,7 @@
         <v>2.3754738095046548</v>
       </c>
     </row>
-    <row r="148" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C148" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -8392,7 +8399,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="G148" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H148" s="2">
         <v>7</v>
@@ -8402,7 +8409,7 @@
         <v>2.6716128381959496</v>
       </c>
     </row>
-    <row r="149" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C149" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -8416,7 +8423,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="G149" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H149" s="2">
         <v>7</v>
@@ -8426,7 +8433,7 @@
         <v>2.9333563155786351</v>
       </c>
     </row>
-    <row r="150" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C150" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -8440,7 +8447,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="G150" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H150" s="2">
         <v>7</v>
@@ -8450,7 +8457,7 @@
         <v>3.1249387366082999</v>
       </c>
     </row>
-    <row r="151" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C151" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -8464,7 +8471,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="G151" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H151" s="2">
         <v>7</v>
@@ -8474,7 +8481,7 @@
         <v>3.2427572536592946</v>
       </c>
     </row>
-    <row r="152" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C152" s="69">
         <v>14.545454545454547</v>
       </c>
@@ -8488,7 +8495,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="G152" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H152" s="2">
         <v>7</v>
@@ -8498,7 +8505,7 @@
         <v>3.304449707929134</v>
       </c>
     </row>
-    <row r="153" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C153" s="70">
         <v>16</v>
       </c>
@@ -8512,7 +8519,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="G153" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H153" s="2">
         <v>7</v>
@@ -8522,7 +8529,7 @@
         <v>0.69443296756636419</v>
       </c>
     </row>
-    <row r="154" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C154" s="70">
         <v>16</v>
       </c>
@@ -8536,7 +8543,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="G154" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H154" s="2">
         <v>7</v>
@@ -8546,7 +8553,7 @@
         <v>1.3736732416122817</v>
       </c>
     </row>
-    <row r="155" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C155" s="70">
         <v>16</v>
       </c>
@@ -8560,7 +8567,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="G155" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H155" s="2">
         <v>7</v>
@@ -8570,7 +8577,7 @@
         <v>1.8757664027659071</v>
       </c>
     </row>
-    <row r="156" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C156" s="70">
         <v>16</v>
       </c>
@@ -8584,7 +8591,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="G156" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H156" s="2">
         <v>7</v>
@@ -8594,7 +8601,7 @@
         <v>2.3006667550797846</v>
       </c>
     </row>
-    <row r="157" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C157" s="70">
         <v>16</v>
       </c>
@@ -8608,7 +8615,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="G157" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H157" s="2">
         <v>7</v>
@@ -8618,7 +8625,7 @@
         <v>2.7211265532945568</v>
       </c>
     </row>
-    <row r="158" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C158" s="70">
         <v>16</v>
       </c>
@@ -8632,7 +8639,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="G158" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H158" s="2">
         <v>7</v>
@@ -8642,7 +8649,7 @@
         <v>3.2686143099099851</v>
       </c>
     </row>
-    <row r="159" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C159" s="70">
         <v>16</v>
       </c>
@@ -8656,7 +8663,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="G159" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H159" s="2">
         <v>7</v>
@@ -8666,7 +8673,7 @@
         <v>3.7404382398621632</v>
       </c>
     </row>
-    <row r="160" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C160" s="70">
         <v>16</v>
       </c>
@@ -8680,7 +8687,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="G160" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H160" s="2">
         <v>7</v>
@@ -8690,7 +8697,7 @@
         <v>3.9737015424545099</v>
       </c>
     </row>
-    <row r="161" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C161" s="70">
         <v>16</v>
       </c>
@@ -8704,7 +8711,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="G161" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H161" s="2">
         <v>7</v>
@@ -8714,7 +8721,7 @@
         <v>4.0476358910817796</v>
       </c>
     </row>
-    <row r="162" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C162" s="70">
         <v>16</v>
       </c>
@@ -8728,7 +8735,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="G162" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H162" s="2">
         <v>7</v>
@@ -8738,7 +8745,7 @@
         <v>4.1205255634752005</v>
       </c>
     </row>
-    <row r="163" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C163" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -8752,7 +8759,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="G163" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H163" s="2">
         <v>7</v>
@@ -8762,7 +8769,7 @@
         <v>0.74243569811710908</v>
       </c>
     </row>
-    <row r="164" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C164" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -8776,7 +8783,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="G164" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H164" s="2">
         <v>7</v>
@@ -8786,7 +8793,7 @@
         <v>1.5560411950480333</v>
       </c>
     </row>
-    <row r="165" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C165" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -8800,7 +8807,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="G165" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H165" s="2">
         <v>7</v>
@@ -8810,7 +8817,7 @@
         <v>2.1874172777601628</v>
       </c>
     </row>
-    <row r="166" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C166" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -8824,7 +8831,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="G166" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H166" s="2">
         <v>7</v>
@@ -8834,7 +8841,7 @@
         <v>2.6147326207485104</v>
       </c>
     </row>
-    <row r="167" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C167" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -8848,7 +8855,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="G167" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H167" s="2">
         <v>7</v>
@@ -8858,7 +8865,7 @@
         <v>3.2727893176877574</v>
       </c>
     </row>
-    <row r="168" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C168" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -8872,7 +8879,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="G168" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H168" s="2">
         <v>7</v>
@@ -8882,7 +8889,7 @@
         <v>3.9829257135889975</v>
       </c>
     </row>
-    <row r="169" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C169" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -8896,7 +8903,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="G169" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H169" s="2">
         <v>7</v>
@@ -8906,7 +8913,7 @@
         <v>4.4695012714412936</v>
       </c>
     </row>
-    <row r="170" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C170" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -8920,7 +8927,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="G170" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H170" s="2">
         <v>7</v>
@@ -8930,7 +8937,7 @@
         <v>4.6025529478187881</v>
       </c>
     </row>
-    <row r="171" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C171" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -8944,7 +8951,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="G171" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H171" s="2">
         <v>7</v>
@@ -8954,7 +8961,7 @@
         <v>5.0495657365010072</v>
       </c>
     </row>
-    <row r="172" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C172" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -8968,7 +8975,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="G172" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H172" s="2">
         <v>7</v>
@@ -8978,7 +8985,7 @@
         <v>5.2211795742302254</v>
       </c>
     </row>
-    <row r="173" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C173" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -8992,7 +8999,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="G173" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H173" s="2">
         <v>7</v>
@@ -9002,7 +9009,7 @@
         <v>0.7903836556260595</v>
       </c>
     </row>
-    <row r="174" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C174" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -9016,7 +9023,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="G174" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H174" s="2">
         <v>7</v>
@@ -9026,7 +9033,7 @@
         <v>1.4991713954627366</v>
       </c>
     </row>
-    <row r="175" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C175" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -9040,7 +9047,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="G175" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H175" s="2">
         <v>7</v>
@@ -9050,7 +9057,7 @@
         <v>2.3568679184800461</v>
       </c>
     </row>
-    <row r="176" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C176" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -9064,7 +9071,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="G176" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H176" s="2">
         <v>7</v>
@@ -9074,7 +9081,7 @@
         <v>3.0527763802866708</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C177" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -9088,7 +9095,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="G177" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H177" s="2">
         <v>7</v>
@@ -9098,7 +9105,7 @@
         <v>3.7411517350877208</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C178" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -9112,7 +9119,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="G178" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H178" s="2">
         <v>7</v>
@@ -9122,7 +9129,7 @@
         <v>4.1637007550948493</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C179" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -9136,7 +9143,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="G179" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H179" s="2">
         <v>7</v>
@@ -9146,7 +9153,7 @@
         <v>4.5527763802866712</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C180" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -9160,7 +9167,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="G180" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H180" s="2">
         <v>7</v>
@@ -9170,7 +9177,7 @@
         <v>4.8142157529268399</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C181" s="72">
         <v>20.454545454545453</v>
       </c>
@@ -9184,7 +9191,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="G181" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H181" s="2">
         <v>7</v>
@@ -9194,7 +9201,7 @@
         <v>5.1637007550948493</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C182" s="78">
         <v>20.454545454545453</v>
       </c>
@@ -9207,8 +9214,8 @@
       <c r="F182" s="56">
         <v>4.4879999999999998E-3</v>
       </c>
-      <c r="G182" s="61">
-        <v>3</v>
+      <c r="G182" s="2">
+        <v>0</v>
       </c>
       <c r="H182" s="61">
         <v>7</v>
@@ -9218,7 +9225,7 @@
         <v>5.4480188730153554</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A183" s="8" t="s">
         <v>32</v>
       </c>
@@ -9235,7 +9242,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="G183" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" s="23">
         <v>3.5</v>
@@ -9245,7 +9252,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C184" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9269,7 +9276,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C185" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9283,7 +9290,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G185" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H185" s="35">
         <v>3.5</v>
@@ -9293,7 +9300,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C186" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9307,7 +9314,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G186" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186" s="35">
         <v>3.5</v>
@@ -9317,7 +9324,7 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C187" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9331,7 +9338,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G187" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H187" s="35">
         <v>3.5</v>
@@ -9341,7 +9348,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C188" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9355,7 +9362,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="G188" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H188" s="35">
         <v>3.5</v>
@@ -9365,7 +9372,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C189" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9378,8 +9385,8 @@
       <c r="F189" s="35">
         <v>5.5578902905298734E-4</v>
       </c>
-      <c r="G189" s="35">
-        <v>2</v>
+      <c r="G189" s="23">
+        <v>1</v>
       </c>
       <c r="H189" s="2">
         <v>4</v>
@@ -9389,7 +9396,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C190" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9413,7 +9420,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C191" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9427,7 +9434,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G191" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H191" s="2">
         <v>4</v>
@@ -9437,7 +9444,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C192" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9451,7 +9458,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G192" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H192" s="2">
         <v>4</v>
@@ -9461,7 +9468,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="193" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C193" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9475,7 +9482,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G193" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H193" s="2">
         <v>4</v>
@@ -9485,7 +9492,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="194" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C194" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9499,7 +9506,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="G194" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H194" s="2">
         <v>4</v>
@@ -9509,7 +9516,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="195" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C195" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9522,8 +9529,8 @@
       <c r="F195" s="35">
         <v>5.5578902905298734E-4</v>
       </c>
-      <c r="G195" s="35">
-        <v>2</v>
+      <c r="G195" s="23">
+        <v>1</v>
       </c>
       <c r="H195" s="2">
         <v>5</v>
@@ -9533,7 +9540,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="196" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C196" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9557,7 +9564,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="197" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C197" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9571,7 +9578,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G197" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H197" s="2">
         <v>5</v>
@@ -9581,7 +9588,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="198" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C198" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9595,7 +9602,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G198" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H198" s="2">
         <v>5</v>
@@ -9605,7 +9612,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="199" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C199" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9619,7 +9626,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G199" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H199" s="2">
         <v>5</v>
@@ -9629,7 +9636,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="200" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C200" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9643,7 +9650,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="G200" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H200" s="2">
         <v>5</v>
@@ -9653,7 +9660,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="201" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C201" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9666,8 +9673,8 @@
       <c r="F201" s="35">
         <v>5.5578902905298734E-4</v>
       </c>
-      <c r="G201" s="35">
-        <v>2</v>
+      <c r="G201" s="23">
+        <v>1</v>
       </c>
       <c r="H201" s="2">
         <v>6</v>
@@ -9677,7 +9684,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="202" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C202" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9701,7 +9708,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="203" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C203" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9715,7 +9722,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="G203" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H203" s="2">
         <v>6</v>
@@ -9725,7 +9732,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="204" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C204" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9739,7 +9746,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="G204" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H204" s="2">
         <v>6</v>
@@ -9749,7 +9756,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="205" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C205" s="71">
         <v>18.18181818181818</v>
       </c>
@@ -9763,7 +9770,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="G205" s="35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H205" s="2">
         <v>6</v>
@@ -9773,7 +9780,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="206" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C206" s="74">
         <v>18.18181818181818</v>
       </c>
@@ -9786,8 +9793,8 @@
       <c r="F206" s="56">
         <v>3.334734174317924E-3</v>
       </c>
-      <c r="G206" s="56">
-        <v>2</v>
+      <c r="G206" s="35">
+        <v>6</v>
       </c>
       <c r="H206" s="61">
         <v>6</v>
@@ -9797,22 +9804,22 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="207" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H212" s="2"/>
     </row>
   </sheetData>
@@ -9826,12 +9833,12 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L184" sqref="L184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9854,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -9877,7 +9884,7 @@
         <v>1.4869800405931907E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -9900,7 +9907,7 @@
         <v>0.13357692268000618</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -9923,7 +9930,7 @@
         <v>0.28503268231480045</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -9946,7 +9953,7 @@
         <v>0.71138291577969703</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -9969,7 +9976,7 @@
         <v>0.91000060340280964</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -9992,7 +9999,7 @@
         <v>8.0330343601475868E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -10015,7 +10022,7 @@
         <v>0.21051469901280939</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -10038,7 +10045,7 @@
         <v>0.63928282802183112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -10061,7 +10068,7 @@
         <v>1.1851737201065928</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -10084,7 +10091,7 @@
         <v>1.4734025198793668</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -10107,7 +10114,7 @@
         <v>7.0779994118673945E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -10130,7 +10137,7 @@
         <v>0.17519580524674078</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -10153,7 +10160,7 @@
         <v>0.94484444845710147</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -10176,7 +10183,7 @@
         <v>1.4261880134156799</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -10199,7 +10206,7 @@
         <v>1.7477084022030289</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -10222,7 +10229,7 @@
         <v>0.52777306468979701</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -10245,7 +10252,7 @@
         <v>0.96380931268136283</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -10268,7 +10275,7 @@
         <v>1.2386758222373562</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -10291,7 +10298,7 @@
         <v>0.77229061496447315</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -10314,7 +10321,7 @@
         <v>1.3177061938971115</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -10337,7 +10344,7 @@
         <v>1.6078376546202668</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -10360,7 +10367,7 @@
         <v>2.3162618538655807E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -10383,7 +10390,7 @@
         <v>0.11311027985601263</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -10406,7 +10413,7 @@
         <v>0.27341044626432665</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -10429,7 +10436,7 @@
         <v>0.5027124283235137</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -10452,7 +10459,7 @@
         <v>0.82482541870087467</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -10475,7 +10482,7 @@
         <v>7.072144949966927E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -10498,7 +10505,7 @@
         <v>0.20275440783971968</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -10521,7 +10528,7 @@
         <v>0.75014120213128621</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -10544,7 +10551,7 @@
         <v>1.253833332764783</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -10567,7 +10574,7 @@
         <v>1.4948646511161958</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -10590,7 +10597,7 @@
         <v>5.5697533224663434E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -10613,7 +10620,7 @@
         <v>0.19904340721776081</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -10636,7 +10643,7 @@
         <v>0.87833020848550436</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -10659,7 +10666,7 @@
         <v>1.4020891046141679</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -10682,7 +10689,7 @@
         <v>1.6077007394651222</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -10705,7 +10712,7 @@
         <v>0.50610628507555844</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -10728,7 +10735,7 @@
         <v>0.87006633193852878</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -10751,7 +10758,7 @@
         <v>1.1507339274669997</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -10774,7 +10781,7 @@
         <v>0.88101079018508688</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -10797,7 +10804,7 @@
         <v>1.316086047809113</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -10820,7 +10827,7 @@
         <v>1.5592984193898709</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -10843,7 +10850,7 @@
         <v>-3.4425813695147913E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -10866,7 +10873,7 @@
         <v>0.12785766408955868</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -10889,7 +10896,7 @@
         <v>0.28281820874640401</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -10912,7 +10919,7 @@
         <v>0.55257282743295133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -10935,7 +10942,7 @@
         <v>0.83265953985669117</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -10958,7 +10965,7 @@
         <v>2.897993129281904E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -10981,7 +10988,7 @@
         <v>0.18138491645892035</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -11004,7 +11011,7 @@
         <v>0.88793799361979531</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -11027,7 +11034,7 @@
         <v>1.3060075911805105</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -11050,7 +11057,7 @@
         <v>1.4722994069453783</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -11073,7 +11080,7 @@
         <v>0.12417205654506192</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -11096,7 +11103,7 @@
         <v>0.30622387500700882</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -11119,7 +11126,7 @@
         <v>0.9363683834014922</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -11142,7 +11149,7 @@
         <v>1.4609752183145119</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -11165,7 +11172,7 @@
         <v>1.7225755811689063</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -11188,7 +11195,7 @@
         <v>0.39676054992414872</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -11211,7 +11218,7 @@
         <v>0.97810475951532505</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -11234,7 +11241,7 @@
         <v>1.2022257964129919</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -11257,7 +11264,7 @@
         <v>0.91536643279087537</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -11280,7 +11287,7 @@
         <v>1.3891561898824503</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -11303,7 +11310,7 @@
         <v>1.6770132684439518</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -11326,7 +11333,7 @@
         <v>2.4075687808017644E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -11349,7 +11356,7 @@
         <v>0.17185742823645572</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -11372,7 +11379,7 @@
         <v>0.44831073877486843</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -11395,7 +11402,7 @@
         <v>0.59529170166627732</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -11418,7 +11425,7 @@
         <v>0.93899490375673078</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -11441,7 +11448,7 @@
         <v>8.0871099965774323E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -11464,7 +11471,7 @@
         <v>0.21416976155340137</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -11487,7 +11494,7 @@
         <v>0.87558335084240602</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -11510,7 +11517,7 @@
         <v>1.355068357306594</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -11533,7 +11540,7 @@
         <v>1.4827432980969433</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>4.545454545454545</v>
       </c>
@@ -11556,7 +11563,7 @@
         <v>0.12708237066257083</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>9.0909090909090899</v>
       </c>
@@ -11579,7 +11586,7 @@
         <v>0.2399570294245601</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -11602,7 +11609,7 @@
         <v>1.1008959652126593</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -11625,7 +11632,7 @@
         <v>1.5009409226882191</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -11648,7 +11655,7 @@
         <v>1.6992184278454767</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -11671,7 +11678,7 @@
         <v>0.62593544166309434</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -11694,7 +11701,7 @@
         <v>0.9939248903729837</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>22.727272727272727</v>
       </c>
@@ -11717,7 +11724,7 @@
         <v>1.1903568651379128</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>13.636363636363635</v>
       </c>
@@ -11740,7 +11747,7 @@
         <v>1.0560155920982472</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>18.18181818181818</v>
       </c>
@@ -11763,7 +11770,7 @@
         <v>1.4163988663050731</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>22.727272727272727</v>
       </c>
@@ -11786,7 +11793,7 @@
         <v>1.6244809151015047</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>10</v>
       </c>
@@ -11800,7 +11807,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" s="2">
         <v>7</v>
@@ -11809,7 +11816,7 @@
         <v>0.24217805848915752</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>10</v>
       </c>
@@ -11832,7 +11839,7 @@
         <v>0.4640472445311985</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>10</v>
       </c>
@@ -11846,7 +11853,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E88" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" s="2">
         <v>7</v>
@@ -11855,7 +11862,7 @@
         <v>0.65672268521320709</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>10</v>
       </c>
@@ -11869,7 +11876,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E89" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89" s="2">
         <v>7</v>
@@ -11878,7 +11885,7 @@
         <v>0.78748341240336084</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>10</v>
       </c>
@@ -11892,7 +11899,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E90" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F90" s="2">
         <v>7</v>
@@ -11901,7 +11908,7 @@
         <v>0.92445662150738606</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>10</v>
       </c>
@@ -11915,7 +11922,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E91" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F91" s="2">
         <v>7</v>
@@ -11924,7 +11931,7 @@
         <v>0.98298797855206266</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -11938,7 +11945,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E92" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" s="2">
         <v>7</v>
@@ -11947,7 +11954,7 @@
         <v>0.83819112858230871</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -11970,7 +11977,7 @@
         <v>1.6454695369784378</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -11984,7 +11991,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E94" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" s="2">
         <v>7</v>
@@ -11993,7 +12000,7 @@
         <v>2.0841755122419423</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -12007,7 +12014,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E95" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" s="2">
         <v>7</v>
@@ -12016,7 +12023,7 @@
         <v>2.4586428907898288</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -12030,7 +12037,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E96" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F96" s="2">
         <v>7</v>
@@ -12039,7 +12046,7 @@
         <v>2.6608932334948201</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -12053,7 +12060,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E97" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F97" s="2">
         <v>7</v>
@@ -12062,7 +12069,7 @@
         <v>2.8391202597386371</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>16</v>
       </c>
@@ -12076,7 +12083,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E98" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="2">
         <v>7</v>
@@ -12085,7 +12092,7 @@
         <v>1.085523141330788</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>16</v>
       </c>
@@ -12108,7 +12115,7 @@
         <v>2.24015296530514</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>16</v>
       </c>
@@ -12122,7 +12129,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E100" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" s="2">
         <v>7</v>
@@ -12131,7 +12138,7 @@
         <v>2.7358806288807274</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>16</v>
       </c>
@@ -12145,7 +12152,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E101" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101" s="2">
         <v>7</v>
@@ -12154,7 +12161,7 @@
         <v>3.2118042270162919</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>16</v>
       </c>
@@ -12168,7 +12175,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E102" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F102" s="2">
         <v>7</v>
@@ -12177,7 +12184,7 @@
         <v>3.5756513048152487</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>16</v>
       </c>
@@ -12191,7 +12198,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E103" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F103" s="2">
         <v>7</v>
@@ -12200,7 +12207,7 @@
         <v>3.8726257118704428</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12214,7 +12221,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E104" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="2">
         <v>7</v>
@@ -12223,7 +12230,7 @@
         <v>1.2037467605200132</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12246,7 +12253,7 @@
         <v>2.309038041638396</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12260,7 +12267,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E106" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F106" s="2">
         <v>7</v>
@@ -12269,7 +12276,7 @@
         <v>3.1488778563286646</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12283,7 +12290,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E107" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F107" s="2">
         <v>7</v>
@@ -12292,7 +12299,7 @@
         <v>3.537144166972034</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12306,7 +12313,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E108" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F108" s="2">
         <v>7</v>
@@ -12315,7 +12322,7 @@
         <v>3.9804923777206596</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12329,7 +12336,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E109" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F109" s="2">
         <v>7</v>
@@ -12338,7 +12345,7 @@
         <v>4.2178553484963928</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -12352,7 +12359,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E110" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" s="2">
         <v>7</v>
@@ -12361,7 +12368,7 @@
         <v>1.5769320088505716</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -12384,7 +12391,7 @@
         <v>3.0003759768373817</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -12398,7 +12405,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E112" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F112" s="2">
         <v>7</v>
@@ -12407,7 +12414,7 @@
         <v>3.8290669521589025</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -12421,7 +12428,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E113" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F113" s="2">
         <v>7</v>
@@ -12430,7 +12437,7 @@
         <v>4.6044542472196097</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -12444,7 +12451,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E114" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F114" s="2">
         <v>7</v>
@@ -12453,7 +12460,7 @@
         <v>5.1436109480995507</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -12467,7 +12474,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E115" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F115" s="2">
         <v>7</v>
@@ -12476,7 +12483,7 @@
         <v>5.2784561979736591</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12490,7 +12497,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E116" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="2">
         <v>7</v>
@@ -12499,7 +12506,7 @@
         <v>1.1858959941475549</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12522,7 +12529,7 @@
         <v>2.1014278300635825</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12536,7 +12543,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E118" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F118" s="2">
         <v>7</v>
@@ -12545,7 +12552,7 @@
         <v>2.7837728115449778</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12559,7 +12566,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E119" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F119" s="2">
         <v>7</v>
@@ -12568,7 +12575,7 @@
         <v>3.3113595101997029</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12582,7 +12589,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E120" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F120" s="2">
         <v>7</v>
@@ -12591,7 +12598,7 @@
         <v>3.5458926348330291</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12605,7 +12612,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E121" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F121" s="2">
         <v>7</v>
@@ -12614,7 +12621,7 @@
         <v>3.815482530467639</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12628,7 +12635,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122" s="2">
         <v>7</v>
@@ -12637,7 +12644,7 @@
         <v>0.73107544349077769</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12660,7 +12667,7 @@
         <v>1.3104036862347477</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12674,7 +12681,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E124" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F124" s="2">
         <v>7</v>
@@ -12683,7 +12690,7 @@
         <v>1.8554389804736231</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12697,7 +12704,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E125" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F125" s="2">
         <v>7</v>
@@ -12706,7 +12713,7 @@
         <v>2.3133783524913483</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12720,7 +12727,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E126" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F126" s="2">
         <v>7</v>
@@ -12729,7 +12736,7 @@
         <v>2.572336015365742</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -12743,7 +12750,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E127" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F127" s="2">
         <v>7</v>
@@ -12752,7 +12759,7 @@
         <v>2.8220348400811495</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>10</v>
       </c>
@@ -12766,7 +12773,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="E128" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F128" s="2">
         <v>7</v>
@@ -12775,7 +12782,7 @@
         <v>0.39848355649264472</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>10</v>
       </c>
@@ -12789,7 +12796,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="E129" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F129" s="2">
         <v>7</v>
@@ -12798,7 +12805,7 @@
         <v>0.62590598649689988</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>10</v>
       </c>
@@ -12812,7 +12819,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="E130" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F130" s="2">
         <v>7</v>
@@ -12821,7 +12828,7 @@
         <v>0.8171625812196549</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>10</v>
       </c>
@@ -12835,7 +12842,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="E131" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F131" s="2">
         <v>7</v>
@@ -12844,7 +12851,7 @@
         <v>0.91416602056260654</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>10</v>
       </c>
@@ -12858,7 +12865,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="E132" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F132" s="2">
         <v>7</v>
@@ -12867,7 +12874,7 @@
         <v>0.98616765149289898</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>10</v>
       </c>
@@ -12881,7 +12888,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="E133" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F133" s="2">
         <v>7</v>
@@ -12890,7 +12897,7 @@
         <v>1.0528419686577808</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>10</v>
       </c>
@@ -12904,7 +12911,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="E134" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F134" s="2">
         <v>7</v>
@@ -12913,7 +12920,7 @@
         <v>1.0902280322290658</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>10</v>
       </c>
@@ -12927,7 +12934,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="E135" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F135" s="2">
         <v>7</v>
@@ -12936,7 +12943,7 @@
         <v>1.1319579916978646</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>10</v>
       </c>
@@ -12950,7 +12957,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="E136" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F136" s="2">
         <v>7</v>
@@ -12959,7 +12966,7 @@
         <v>1.1864195238126123</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>10</v>
       </c>
@@ -12973,7 +12980,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="E137" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F137" s="2">
         <v>7</v>
@@ -12982,7 +12989,7 @@
         <v>1.2269607449677253</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -12996,7 +13003,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="E138" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F138" s="2">
         <v>7</v>
@@ -13005,7 +13012,7 @@
         <v>0.65641226167148381</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -13019,7 +13026,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="E139" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F139" s="2">
         <v>7</v>
@@ -13028,7 +13035,7 @@
         <v>1.213472155768111</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -13042,7 +13049,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="E140" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F140" s="2">
         <v>7</v>
@@ -13051,7 +13058,7 @@
         <v>1.601335257451955</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -13065,7 +13072,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="E141" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F141" s="2">
         <v>7</v>
@@ -13074,7 +13081,7 @@
         <v>2.0252199171948</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -13088,7 +13095,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="E142" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F142" s="2">
         <v>7</v>
@@ -13097,7 +13104,7 @@
         <v>2.3754738095046548</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -13111,7 +13118,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="E143" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F143" s="2">
         <v>7</v>
@@ -13120,7 +13127,7 @@
         <v>2.6716128381959496</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -13134,7 +13141,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="E144" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F144" s="2">
         <v>7</v>
@@ -13143,7 +13150,7 @@
         <v>2.9333563155786351</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -13157,7 +13164,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="E145" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F145" s="2">
         <v>7</v>
@@ -13166,7 +13173,7 @@
         <v>3.1249387366082999</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -13180,7 +13187,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="E146" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F146" s="2">
         <v>7</v>
@@ -13189,7 +13196,7 @@
         <v>3.2427572536592946</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>14.545454545454547</v>
       </c>
@@ -13203,7 +13210,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="E147" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F147" s="2">
         <v>7</v>
@@ -13212,7 +13219,7 @@
         <v>3.304449707929134</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>16</v>
       </c>
@@ -13226,7 +13233,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="E148" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F148" s="2">
         <v>7</v>
@@ -13235,7 +13242,7 @@
         <v>0.69443296756636419</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>16</v>
       </c>
@@ -13249,7 +13256,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="E149" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F149" s="2">
         <v>7</v>
@@ -13258,7 +13265,7 @@
         <v>1.3736732416122817</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>16</v>
       </c>
@@ -13272,7 +13279,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="E150" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F150" s="2">
         <v>7</v>
@@ -13281,7 +13288,7 @@
         <v>1.8757664027659071</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>16</v>
       </c>
@@ -13295,7 +13302,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="E151" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F151" s="2">
         <v>7</v>
@@ -13304,7 +13311,7 @@
         <v>2.3006667550797846</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>16</v>
       </c>
@@ -13318,7 +13325,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="E152" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F152" s="2">
         <v>7</v>
@@ -13327,7 +13334,7 @@
         <v>2.7211265532945568</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>16</v>
       </c>
@@ -13341,7 +13348,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="E153" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F153" s="2">
         <v>7</v>
@@ -13350,7 +13357,7 @@
         <v>3.2686143099099851</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>16</v>
       </c>
@@ -13364,7 +13371,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="E154" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F154" s="2">
         <v>7</v>
@@ -13373,7 +13380,7 @@
         <v>3.7404382398621632</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>16</v>
       </c>
@@ -13387,7 +13394,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="E155" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F155" s="2">
         <v>7</v>
@@ -13396,7 +13403,7 @@
         <v>3.9737015424545099</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>16</v>
       </c>
@@ -13410,7 +13417,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="E156" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F156" s="2">
         <v>7</v>
@@ -13419,7 +13426,7 @@
         <v>4.0476358910817796</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>16</v>
       </c>
@@ -13433,7 +13440,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="E157" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F157" s="2">
         <v>7</v>
@@ -13442,7 +13449,7 @@
         <v>4.1205255634752005</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13456,7 +13463,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="E158" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F158" s="2">
         <v>7</v>
@@ -13465,7 +13472,7 @@
         <v>0.74243569811710908</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13479,7 +13486,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="E159" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F159" s="2">
         <v>7</v>
@@ -13488,7 +13495,7 @@
         <v>1.5560411950480333</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13502,7 +13509,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="E160" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F160" s="2">
         <v>7</v>
@@ -13511,7 +13518,7 @@
         <v>2.1874172777601628</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13525,7 +13532,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="E161" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F161" s="2">
         <v>7</v>
@@ -13534,7 +13541,7 @@
         <v>2.6147326207485104</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13548,7 +13555,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="E162" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F162" s="2">
         <v>7</v>
@@ -13557,7 +13564,7 @@
         <v>3.2727893176877574</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13571,7 +13578,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="E163" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F163" s="2">
         <v>7</v>
@@ -13580,7 +13587,7 @@
         <v>3.9829257135889975</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13594,7 +13601,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="E164" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F164" s="2">
         <v>7</v>
@@ -13603,7 +13610,7 @@
         <v>4.4695012714412936</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13617,7 +13624,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="E165" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F165" s="2">
         <v>7</v>
@@ -13626,7 +13633,7 @@
         <v>4.6025529478187881</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13640,7 +13647,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="E166" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F166" s="2">
         <v>7</v>
@@ -13649,7 +13656,7 @@
         <v>5.0495657365010072</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13663,7 +13670,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="E167" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F167" s="2">
         <v>7</v>
@@ -13672,7 +13679,7 @@
         <v>5.2211795742302254</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -13686,7 +13693,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="E168" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F168" s="2">
         <v>7</v>
@@ -13695,7 +13702,7 @@
         <v>0.7903836556260595</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -13709,7 +13716,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="E169" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F169" s="2">
         <v>7</v>
@@ -13718,7 +13725,7 @@
         <v>1.4991713954627366</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -13732,7 +13739,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="E170" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F170" s="2">
         <v>7</v>
@@ -13741,7 +13748,7 @@
         <v>2.3568679184800461</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -13755,7 +13762,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="E171" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F171" s="2">
         <v>7</v>
@@ -13764,7 +13771,7 @@
         <v>3.0527763802866708</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -13778,7 +13785,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="E172" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F172" s="2">
         <v>7</v>
@@ -13787,7 +13794,7 @@
         <v>3.7411517350877208</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -13801,7 +13808,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="E173" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F173" s="2">
         <v>7</v>
@@ -13810,7 +13817,7 @@
         <v>4.1637007550948493</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -13824,7 +13831,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="E174" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F174" s="2">
         <v>7</v>
@@ -13833,7 +13840,7 @@
         <v>4.5527763802866712</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -13847,7 +13854,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="E175" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F175" s="2">
         <v>7</v>
@@ -13856,7 +13863,7 @@
         <v>4.8142157529268399</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -13870,7 +13877,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="E176" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F176" s="2">
         <v>7</v>
@@ -13879,7 +13886,7 @@
         <v>5.1637007550948493</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>20.454545454545453</v>
       </c>
@@ -13893,7 +13900,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="E177" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F177" s="2">
         <v>7</v>
@@ -13902,7 +13909,7 @@
         <v>5.4480188730153554</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13916,7 +13923,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E178" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F178" s="2">
         <v>3.5</v>
@@ -13925,7 +13932,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13948,7 +13955,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13962,7 +13969,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E180" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F180" s="2">
         <v>3.5</v>
@@ -13971,7 +13978,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -13985,7 +13992,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E181" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F181" s="2">
         <v>3.5</v>
@@ -13994,7 +14001,7 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14008,7 +14015,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E182" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F182" s="2">
         <v>3.5</v>
@@ -14017,7 +14024,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14031,7 +14038,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E183" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F183" s="2">
         <v>3.5</v>
@@ -14040,7 +14047,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14054,7 +14061,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E184" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" s="2">
         <v>4</v>
@@ -14063,7 +14070,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14086,7 +14093,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14100,7 +14107,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E186" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F186" s="2">
         <v>4</v>
@@ -14109,7 +14116,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14123,7 +14130,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E187" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F187" s="2">
         <v>4</v>
@@ -14132,7 +14139,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14146,7 +14153,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E188" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F188" s="2">
         <v>4</v>
@@ -14155,7 +14162,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14169,7 +14176,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E189" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F189" s="2">
         <v>4</v>
@@ -14178,7 +14185,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14192,7 +14199,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E190" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" s="2">
         <v>5</v>
@@ -14201,7 +14208,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14224,7 +14231,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14238,7 +14245,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E192" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F192" s="2">
         <v>5</v>
@@ -14247,7 +14254,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14261,7 +14268,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E193" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F193" s="2">
         <v>5</v>
@@ -14270,7 +14277,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14284,7 +14291,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E194" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F194" s="2">
         <v>5</v>
@@ -14293,7 +14300,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14307,7 +14314,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E195" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F195" s="2">
         <v>5</v>
@@ -14316,7 +14323,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14330,7 +14337,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E196" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F196" s="2">
         <v>6</v>
@@ -14339,7 +14346,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14362,7 +14369,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14376,7 +14383,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E198" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F198" s="2">
         <v>6</v>
@@ -14385,7 +14392,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14399,7 +14406,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E199" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F199" s="2">
         <v>6</v>
@@ -14408,7 +14415,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14422,7 +14429,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E200" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F200" s="2">
         <v>6</v>
@@ -14431,7 +14438,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>18.18181818181818</v>
       </c>
@@ -14445,7 +14452,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E201" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F201" s="2">
         <v>6</v>
@@ -14464,15 +14471,15 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A2" sqref="A2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14495,7 +14502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14</v>
       </c>
@@ -14518,7 +14525,7 @@
         <v>0.61850421591152449</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14.272727272727272</v>
       </c>
@@ -14541,7 +14548,7 @@
         <v>1.1318953930514444</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15.09090909090909</v>
       </c>
@@ -14564,7 +14571,7 @@
         <v>0.83257272280795092</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15.363636363636363</v>
       </c>
@@ -14587,7 +14594,7 @@
         <v>1.3015203096816852</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16.09090909090909</v>
       </c>
@@ -14610,7 +14617,7 @@
         <v>0.92480923668517989</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16.363636363636363</v>
       </c>
@@ -14633,7 +14640,7 @@
         <v>1.4425128671696141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17.272727272727273</v>
       </c>
@@ -14656,7 +14663,7 @@
         <v>1.1145553924289613</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17.272727272727273</v>
       </c>
@@ -14679,7 +14686,7 @@
         <v>1.5239697108176438</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19.090909090909093</v>
       </c>
@@ -14702,7 +14709,7 @@
         <v>1.3530339302899663</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19.090909090909093</v>
       </c>
@@ -14725,7 +14732,7 @@
         <v>1.5499938089868122</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.0909090909090899</v>
       </c>
@@ -14748,7 +14755,7 @@
         <v>0.13357692268000618</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13.636363636363637</v>
       </c>
@@ -14771,7 +14778,7 @@
         <v>0.57467028822730226</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18.18181818181818</v>
       </c>
@@ -14794,7 +14801,7 @@
         <v>0.83190167613195565</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22.727272727272727</v>
       </c>
@@ -14817,7 +14824,7 @@
         <v>0.92370923914362379</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.0909090909090899</v>
       </c>
@@ -14840,7 +14847,7 @@
         <v>0.21051469901280939</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13.636363636363637</v>
       </c>
@@ -14863,7 +14870,7 @@
         <v>0.66388398454233011</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18.18181818181818</v>
       </c>
@@ -14886,7 +14893,7 @@
         <v>1.3410213415430992</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22.727272727272727</v>
       </c>
@@ -14909,7 +14916,7 @@
         <v>1.5562246956728409</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.0909090909090899</v>
       </c>
@@ -14932,7 +14939,7 @@
         <v>0.17519580524674078</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13.636363636363637</v>
       </c>
@@ -14965,15 +14972,15 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14996,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -15010,7 +15017,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -15019,7 +15026,7 @@
         <v>1.1755606655312663</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17</v>
       </c>
@@ -15042,7 +15049,7 @@
         <v>2.2057402685541607</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -15056,7 +15063,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -15065,7 +15072,7 @@
         <v>2.6728350382814163</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
@@ -15079,7 +15086,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -15088,7 +15095,7 @@
         <v>3.2144848759393256</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17</v>
       </c>
@@ -15102,7 +15109,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -15111,7 +15118,7 @@
         <v>3.6244861510857951</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -15125,7 +15132,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -15144,15 +15151,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15175,7 +15182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -15189,7 +15196,7 @@
         <v>4.4900000000000002E-4</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -15198,7 +15205,7 @@
         <v>0.79613539948337619</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17</v>
       </c>
@@ -15212,7 +15219,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -15221,7 +15228,7 @@
         <v>1.4047810262811162</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -15235,7 +15242,7 @@
         <v>1.346E-3</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -15244,7 +15251,7 @@
         <v>1.9443716493049283</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
@@ -15258,7 +15265,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -15267,7 +15274,7 @@
         <v>2.512611087884407</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17</v>
       </c>
@@ -15281,7 +15288,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -15290,7 +15297,7 @@
         <v>2.7607309704884573</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -15304,7 +15311,7 @@
         <v>2.6930000000000001E-3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -15313,7 +15320,7 @@
         <v>3.2603832566576312</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
@@ -15327,7 +15334,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -15336,7 +15343,7 @@
         <v>3.6960636335964479</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -15350,7 +15357,7 @@
         <v>3.5899999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -15359,7 +15366,7 @@
         <v>3.9593532609936499</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -15373,7 +15380,7 @@
         <v>4.0390000000000001E-3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -15382,7 +15389,7 @@
         <v>4.3144950958405488</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -15396,7 +15403,7 @@
         <v>4.4879999999999998E-3</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -15414,16 +15421,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A39787-27E8-4FF7-A118-3B000672E1D5}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15446,7 +15453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18.18181818181818</v>
       </c>
@@ -15460,7 +15467,7 @@
         <v>5.5578902905298734E-4</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>5.5</v>
@@ -15469,7 +15476,7 @@
         <v>2.3094309624145586</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18.18181818181818</v>
       </c>
@@ -15492,7 +15499,7 @@
         <v>2.9838538366014462</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18.18181818181818</v>
       </c>
@@ -15506,7 +15513,7 @@
         <v>1.667367087158962E-3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>5.5</v>
@@ -15515,7 +15522,7 @@
         <v>3.5301617595109982</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18.18181818181818</v>
       </c>
@@ -15529,7 +15536,7 @@
         <v>2.2231561162119494E-3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>5.5</v>
@@ -15538,7 +15545,7 @@
         <v>3.8342471695162841</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18.18181818181818</v>
       </c>
@@ -15552,7 +15559,7 @@
         <v>2.7789451452649369E-3</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>5.5</v>
@@ -15561,7 +15568,7 @@
         <v>4.1796732265732039</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18.18181818181818</v>
       </c>
@@ -15575,7 +15582,7 @@
         <v>3.334734174317924E-3</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>5.5</v>
